--- a/MURPreviousPointsTable.xlsx
+++ b/MURPreviousPointsTable.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ambar\Downloads\Lap Sim 2017 (3)\Lap Sim 2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ambar-Surface\Documents\MUR\lapSim2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8231145-1C14-4C83-AFE8-674EF9E22B73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" xr2:uid="{C24958BF-4AE7-45AB-ACEB-8F167CB0CB3B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12263" windowHeight="5813" xr2:uid="{C24958BF-4AE7-45AB-ACEB-8F167CB0CB3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -119,7 +125,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-AU" baseline="0"/>
-              <a:t>Predicted versus actual performance of MUR over the years </a:t>
+              <a:t>Simulated Performance versus actual performance of MUR over the years </a:t>
             </a:r>
             <a:endParaRPr lang="en-AU"/>
           </a:p>
@@ -172,7 +178,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Actual Dynamic Performance</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dynamic Points</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -200,66 +214,69 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:f>Sheet1!$B$4:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>2010</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2011</c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2012</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2013</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2014</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2016</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2017</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$11</c:f>
+              <c:f>Sheet1!$C$4:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>433.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>265.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>199.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>428.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>521.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>569.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>433.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>265.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>199.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>428.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>521.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>591.4</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -275,7 +292,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Predicted Dynamic Performance</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Predicted Dynamic Points</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -303,69 +328,72 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:f>Sheet1!$B$4:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>2010</c:v>
+                  <c:v>2011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2011</c:v>
+                  <c:v>2012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2012</c:v>
+                  <c:v>2013</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2013</c:v>
+                  <c:v>2014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2014</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2015</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2016</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2017</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$11</c:f>
+              <c:f>Sheet1!$D$4:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>404.56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>404.56</c:v>
+                  <c:v>402.28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>402.28</c:v>
+                  <c:v>414.94</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>414.94</c:v>
+                  <c:v>435.41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>435.41</c:v>
+                  <c:v>457.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>457.15</c:v>
+                  <c:v>574.70000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>517.37</c:v>
+                  <c:v>600.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>542.4</c:v>
+                  <c:v>613</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>599.08000000000004</c:v>
+                  <c:v>643</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -547,7 +575,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-AU"/>
-                  <a:t>Points (675</a:t>
+                  <a:t>Dynamic Points (675</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-AU" baseline="0"/>
@@ -698,7 +726,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1263,14 +1291,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>648432</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>424961</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
@@ -1597,19 +1625,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B378D207-2C4E-4F6E-A413-F94F7187045A}">
-  <dimension ref="B3:D11"/>
+  <dimension ref="B3:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.3984375" customWidth="1"/>
+    <col min="4" max="4" width="24.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -1617,7 +1645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>2010</v>
       </c>
@@ -1628,7 +1656,7 @@
         <v>404.56</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>2011</v>
       </c>
@@ -1639,7 +1667,7 @@
         <v>402.28</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>2012</v>
       </c>
@@ -1650,7 +1678,7 @@
         <v>414.94</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>2013</v>
       </c>
@@ -1661,7 +1689,7 @@
         <v>435.41</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>2014</v>
       </c>
@@ -1672,18 +1700,18 @@
         <v>457.15</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>591.4</v>
+        <v>569.4</v>
       </c>
       <c r="D9">
-        <v>517.37</v>
+        <v>574.70000000000005</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>2016</v>
       </c>
@@ -1691,15 +1719,30 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>542.4</v>
+        <v>600.4</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>2017</v>
       </c>
+      <c r="C11">
+        <v>480</v>
+      </c>
       <c r="D11">
-        <v>599.08000000000004</v>
+        <v>613</v>
+      </c>
+      <c r="E11">
+        <f>C11/D11</f>
+        <v>0.78303425774877655</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <v>2018</v>
+      </c>
+      <c r="D12">
+        <v>643</v>
       </c>
     </row>
   </sheetData>
